--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmmoh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775CD4FB-6C82-4C61-98C0-57EF082F7FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC32B846-FF63-4EA0-9AEE-9D148C6B4AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D9F71BCA-9BE0-453E-933A-AFA6C1FA7316}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="73">
   <si>
     <t>color</t>
   </si>
@@ -205,6 +205,45 @@
   </si>
   <si>
     <t>Golshahr</t>
+  </si>
+  <si>
+    <t>Soleymani store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mellat </t>
+  </si>
+  <si>
+    <t>Seven store</t>
+  </si>
+  <si>
+    <t>Saman</t>
+  </si>
+  <si>
+    <t>Ghavamin</t>
+  </si>
+  <si>
+    <t>Ansar</t>
+  </si>
+  <si>
+    <t>Eshel store</t>
+  </si>
+  <si>
+    <t>KESHAVARZI</t>
+  </si>
+  <si>
+    <t>Salar market</t>
+  </si>
+  <si>
+    <t>Post bank</t>
+  </si>
+  <si>
+    <t>Refah bank</t>
+  </si>
+  <si>
+    <t>CNG Station</t>
+  </si>
+  <si>
+    <t>Milad</t>
   </si>
 </sst>
 </file>
@@ -569,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC89FAA6-7DCA-4BDD-9AE4-87D177322E8F}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,10 +1570,316 @@
         <v>48.501461663842903</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2">
+        <v>36.665459329110703</v>
+      </c>
+      <c r="C57" s="2">
+        <v>48.500275586069499</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="2">
+        <v>36.665504633639898</v>
+      </c>
+      <c r="C58" s="2">
+        <v>48.499307359286099</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="2">
+        <v>36.665957677464803</v>
+      </c>
+      <c r="C59" s="2">
+        <v>48.494474294019902</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="2">
+        <v>36.666727845853401</v>
+      </c>
+      <c r="C60" s="2">
+        <v>48.492053727181499</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="2">
+        <v>36.667154994752899</v>
+      </c>
+      <c r="C61" s="2">
+        <v>48.4890764299004</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="2">
+        <v>36.667465647014403</v>
+      </c>
+      <c r="C62" s="2">
+        <v>48.487494992911998</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="2">
+        <v>36.667426815565001</v>
+      </c>
+      <c r="C63" s="2">
+        <v>48.481153107676299</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" s="2">
+        <v>36.675397874545503</v>
+      </c>
+      <c r="C64" s="2">
+        <v>48.481972385140601</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="2">
+        <v>36.678830796951203</v>
+      </c>
+      <c r="C65" s="2">
+        <v>48.485659622950003</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" s="2">
+        <v>36.6729960269396</v>
+      </c>
+      <c r="C66" s="2">
+        <v>48.490028945951501</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="2">
+        <v>36.672209328124097</v>
+      </c>
+      <c r="C67" s="2">
+        <v>48.4920828962508</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="2">
+        <v>36.674174875962002</v>
+      </c>
+      <c r="C68" s="2">
+        <v>48.4881449232657</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="2">
+        <v>36.676151989809199</v>
+      </c>
+      <c r="C69" s="2">
+        <v>48.488337545265402</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" s="2">
+        <v>36.699314565729203</v>
+      </c>
+      <c r="C70" s="2">
+        <v>48.460141038427601</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="2">
+        <v>36.699230351784799</v>
+      </c>
+      <c r="C71" s="2">
+        <v>48.465921883745601</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="2">
+        <v>36.7011172041978</v>
+      </c>
+      <c r="C72" s="2">
+        <v>48.473431251987897</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73" s="2">
+        <v>36.699665016516299</v>
+      </c>
+      <c r="C73" s="2">
+        <v>48.4767671477764</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="2">
+        <v>36.698094721648999</v>
+      </c>
+      <c r="C74" s="2">
+        <v>48.478279458096601</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmmoh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\GIS-recommender-system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC32B846-FF63-4EA0-9AEE-9D148C6B4AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8769BA4-01F9-487B-9D23-8C1ED28AF1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D9F71BCA-9BE0-453E-933A-AFA6C1FA7316}"/>
+    <workbookView xWindow="0" yWindow="3336" windowWidth="17280" windowHeight="8904" xr2:uid="{D9F71BCA-9BE0-453E-933A-AFA6C1FA7316}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -250,7 +250,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,20 +610,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC89FAA6-7DCA-4BDD-9AE4-87D177322E8F}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="B63" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="21.41796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.41796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41.15625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.26171875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.15625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -641,7 +641,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -658,7 +658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -675,7 +675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -692,7 +692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -709,7 +709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -726,7 +726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -743,7 +743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -760,7 +760,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -777,7 +777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -794,7 +794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -811,7 +811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -828,7 +828,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
@@ -845,7 +845,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -862,7 +862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -879,7 +879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
@@ -896,7 +896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
@@ -913,7 +913,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
@@ -930,7 +930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
@@ -947,7 +947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -964,7 +964,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
@@ -981,7 +981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -998,7 +998,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
         <v>37</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
         <v>37</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
         <v>37</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
         <v>26</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
         <v>1</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
         <v>1</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
         <v>1</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
         <v>37</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
         <v>1</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
         <v>26</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
         <v>1</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
         <v>1</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
         <v>26</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
         <v>37</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
         <v>37</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
         <v>37</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
         <v>37</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
         <v>1</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
         <v>37</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
         <v>1</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
         <v>37</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
         <v>37</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
         <v>37</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
         <v>37</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
         <v>37</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
         <v>1</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
         <v>37</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
         <v>1</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
         <v>37</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
         <v>37</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
         <v>26</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
         <v>26</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
         <v>1</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" s="2" t="s">
         <v>37</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
         <v>1</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>72</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
